--- a/data/pca/factorExposure/factorExposure_2015-04-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-04-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02263308960977143</v>
+        <v>0.01062662140272048</v>
       </c>
       <c r="C2">
-        <v>0.02500608105902496</v>
+        <v>-0.0517473178964921</v>
       </c>
       <c r="D2">
-        <v>-0.1288813096838766</v>
+        <v>-0.1260126263341808</v>
       </c>
       <c r="E2">
-        <v>-0.01010693454468325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02471812885456951</v>
+      </c>
+      <c r="F2">
+        <v>-0.01915672874338174</v>
+      </c>
+      <c r="G2">
+        <v>0.0814525489000235</v>
+      </c>
+      <c r="H2">
+        <v>0.1187927671005159</v>
+      </c>
+      <c r="I2">
+        <v>-0.06976832206477962</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04227966648166511</v>
+        <v>0.01560662833923049</v>
       </c>
       <c r="C4">
-        <v>0.0713718628600398</v>
+        <v>-0.1064073213269349</v>
       </c>
       <c r="D4">
-        <v>-0.1057318561915973</v>
+        <v>-0.1277324856098548</v>
       </c>
       <c r="E4">
-        <v>-0.08739972720216743</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01778220875089002</v>
+      </c>
+      <c r="F4">
+        <v>-0.09230207409607584</v>
+      </c>
+      <c r="G4">
+        <v>0.0001639062998010269</v>
+      </c>
+      <c r="H4">
+        <v>0.04577765583648505</v>
+      </c>
+      <c r="I4">
+        <v>0.07483342372589767</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02500066103987089</v>
+        <v>0.02969749571252475</v>
       </c>
       <c r="C6">
-        <v>0.01236866223294069</v>
+        <v>-0.03663470670103035</v>
       </c>
       <c r="D6">
-        <v>-0.127885473542058</v>
+        <v>-0.1219941214160037</v>
       </c>
       <c r="E6">
-        <v>-0.05512285379338435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.06364375149889787</v>
+      </c>
+      <c r="F6">
+        <v>-0.04448851416510945</v>
+      </c>
+      <c r="G6">
+        <v>-0.02635839002737512</v>
+      </c>
+      <c r="H6">
+        <v>0.03990332763680327</v>
+      </c>
+      <c r="I6">
+        <v>0.004148494500759569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.002008108940398025</v>
+        <v>0.005910531534085913</v>
       </c>
       <c r="C7">
-        <v>0.02276069799578821</v>
+        <v>-0.03833670839224984</v>
       </c>
       <c r="D7">
-        <v>-0.1077361840334134</v>
+        <v>-0.09697911390661453</v>
       </c>
       <c r="E7">
-        <v>-0.01629243149500744</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.04887115115750276</v>
+      </c>
+      <c r="F7">
+        <v>-0.004046419203052575</v>
+      </c>
+      <c r="G7">
+        <v>-0.05100377764769151</v>
+      </c>
+      <c r="H7">
+        <v>0.06963940058337451</v>
+      </c>
+      <c r="I7">
+        <v>0.05475239150231849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.0005021947751642646</v>
+        <v>-0.007514680696098556</v>
       </c>
       <c r="C8">
-        <v>0.02506023155805855</v>
+        <v>-0.03553575272706602</v>
       </c>
       <c r="D8">
-        <v>-0.08462243724263917</v>
+        <v>-0.07559174266832853</v>
       </c>
       <c r="E8">
-        <v>-0.03850252020187439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.03556730362086007</v>
+      </c>
+      <c r="F8">
+        <v>-0.04985058624492782</v>
+      </c>
+      <c r="G8">
+        <v>0.05525081223742326</v>
+      </c>
+      <c r="H8">
+        <v>0.03919957545957416</v>
+      </c>
+      <c r="I8">
+        <v>0.0238550649315122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03424115442714894</v>
+        <v>0.0115277545748614</v>
       </c>
       <c r="C9">
-        <v>0.06078698199622689</v>
+        <v>-0.08793347783875005</v>
       </c>
       <c r="D9">
-        <v>-0.1114993088908923</v>
+        <v>-0.1099792874524781</v>
       </c>
       <c r="E9">
-        <v>-0.0700378223384176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01597462813360801</v>
+      </c>
+      <c r="F9">
+        <v>-0.06030122607372098</v>
+      </c>
+      <c r="G9">
+        <v>-0.03209616984614182</v>
+      </c>
+      <c r="H9">
+        <v>0.05055393958519204</v>
+      </c>
+      <c r="I9">
+        <v>0.04271911764902542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1747801249647017</v>
+        <v>0.2410176875361614</v>
       </c>
       <c r="C10">
-        <v>-0.1729116488265977</v>
+        <v>0.08853343757960132</v>
       </c>
       <c r="D10">
-        <v>0.008326032422082214</v>
+        <v>0.005448873878206119</v>
       </c>
       <c r="E10">
-        <v>-0.05075170306930409</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01473496386328705</v>
+      </c>
+      <c r="F10">
+        <v>-0.04882814255549967</v>
+      </c>
+      <c r="G10">
+        <v>0.01001632852211723</v>
+      </c>
+      <c r="H10">
+        <v>-0.01027733843814996</v>
+      </c>
+      <c r="I10">
+        <v>-0.01552513142964087</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.01925040022326688</v>
+        <v>0.009623419858211696</v>
       </c>
       <c r="C11">
-        <v>0.04201305079254174</v>
+        <v>-0.05892192889971965</v>
       </c>
       <c r="D11">
-        <v>-0.04183905010832233</v>
+        <v>-0.04048207337085621</v>
       </c>
       <c r="E11">
-        <v>0.01616128598080246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.02157503037566545</v>
+      </c>
+      <c r="F11">
+        <v>0.01568541301359608</v>
+      </c>
+      <c r="G11">
+        <v>-0.02892858953757426</v>
+      </c>
+      <c r="H11">
+        <v>0.03458082457033988</v>
+      </c>
+      <c r="I11">
+        <v>0.03945176629881439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01815341972812059</v>
+        <v>0.009052074932993167</v>
       </c>
       <c r="C12">
-        <v>0.0421188206173705</v>
+        <v>-0.050507638562736</v>
       </c>
       <c r="D12">
-        <v>-0.05468756061648224</v>
+        <v>-0.04466351399636872</v>
       </c>
       <c r="E12">
-        <v>0.006420202994111571</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01593705119673754</v>
+      </c>
+      <c r="F12">
+        <v>0.01857974594431474</v>
+      </c>
+      <c r="G12">
+        <v>-0.05129111433586436</v>
+      </c>
+      <c r="H12">
+        <v>0.04946252551737062</v>
+      </c>
+      <c r="I12">
+        <v>0.01567809731251374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.005225096346297065</v>
+        <v>-0.004904879342876417</v>
       </c>
       <c r="C13">
-        <v>0.02476595375942401</v>
+        <v>-0.04937754965765845</v>
       </c>
       <c r="D13">
-        <v>-0.1290014070190675</v>
+        <v>-0.1431864142702689</v>
       </c>
       <c r="E13">
-        <v>-0.04513559970202907</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03767797959198455</v>
+      </c>
+      <c r="F13">
+        <v>-0.02833642796462535</v>
+      </c>
+      <c r="G13">
+        <v>-0.01227553239438995</v>
+      </c>
+      <c r="H13">
+        <v>0.08295710638403418</v>
+      </c>
+      <c r="I13">
+        <v>-0.03428155954970651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.004176109574990448</v>
+        <v>0.002824882022431967</v>
       </c>
       <c r="C14">
-        <v>0.01694253524988454</v>
+        <v>-0.03230772028803246</v>
       </c>
       <c r="D14">
-        <v>-0.0858742173470451</v>
+        <v>-0.09844448354371811</v>
       </c>
       <c r="E14">
-        <v>-0.01851188342280156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.05196168829148744</v>
+      </c>
+      <c r="F14">
+        <v>-0.02772849541852212</v>
+      </c>
+      <c r="G14">
+        <v>-0.04132528531258751</v>
+      </c>
+      <c r="H14">
+        <v>0.1331119474312244</v>
+      </c>
+      <c r="I14">
+        <v>0.01544121725953816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.002754784863724515</v>
+        <v>-0.004846033017448973</v>
       </c>
       <c r="C15">
-        <v>0.010007811953366</v>
+        <v>-0.02848597975507253</v>
       </c>
       <c r="D15">
-        <v>-0.03613701185719992</v>
+        <v>-0.06196433393501983</v>
       </c>
       <c r="E15">
-        <v>0.003199545288325618</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.0146712919418449</v>
+      </c>
+      <c r="F15">
+        <v>-0.008264376714234301</v>
+      </c>
+      <c r="G15">
+        <v>0.004284538608107482</v>
+      </c>
+      <c r="H15">
+        <v>0.04835564163924803</v>
+      </c>
+      <c r="I15">
+        <v>0.02257322019652575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01764148154306628</v>
+        <v>0.00883819945798691</v>
       </c>
       <c r="C16">
-        <v>0.03775859698621417</v>
+        <v>-0.05071472119567148</v>
       </c>
       <c r="D16">
-        <v>-0.04750649690867054</v>
+        <v>-0.04183628703075912</v>
       </c>
       <c r="E16">
-        <v>0.005957154582685532</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02286418548511731</v>
+      </c>
+      <c r="F16">
+        <v>0.0104283602882449</v>
+      </c>
+      <c r="G16">
+        <v>-0.03734350217148629</v>
+      </c>
+      <c r="H16">
+        <v>0.03080074891876801</v>
+      </c>
+      <c r="I16">
+        <v>0.02539687199406134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.002162082060091512</v>
+        <v>-0.003838402897101232</v>
       </c>
       <c r="C19">
-        <v>0.01993989016516415</v>
+        <v>-0.01518265328856969</v>
       </c>
       <c r="D19">
-        <v>-0.07739337363251725</v>
+        <v>-0.05250422766457819</v>
       </c>
       <c r="E19">
-        <v>-0.03088838057421983</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.008039272392438594</v>
+      </c>
+      <c r="F19">
+        <v>-0.01386180333668625</v>
+      </c>
+      <c r="G19">
+        <v>-0.002671817486107945</v>
+      </c>
+      <c r="H19">
+        <v>0.05162417519931267</v>
+      </c>
+      <c r="I19">
+        <v>-0.008579755338944178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002991634209059773</v>
+        <v>0.004105167099787939</v>
       </c>
       <c r="C20">
-        <v>0.02502872219589718</v>
+        <v>-0.04190517303466407</v>
       </c>
       <c r="D20">
-        <v>-0.07663110315224134</v>
+        <v>-0.08729636774235931</v>
       </c>
       <c r="E20">
-        <v>-0.0372261577492906</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02434762176253552</v>
+      </c>
+      <c r="F20">
+        <v>-0.02443530570487305</v>
+      </c>
+      <c r="G20">
+        <v>-0.03355291322469992</v>
+      </c>
+      <c r="H20">
+        <v>0.04538982518541232</v>
+      </c>
+      <c r="I20">
+        <v>0.04842748773666446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.004643276918212719</v>
+        <v>0.002083650869611916</v>
       </c>
       <c r="C21">
-        <v>0.03055755301039724</v>
+        <v>-0.04614427552884508</v>
       </c>
       <c r="D21">
-        <v>-0.1415609057614196</v>
+        <v>-0.1241381581392772</v>
       </c>
       <c r="E21">
-        <v>-0.08416357368279502</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03284141732801624</v>
+      </c>
+      <c r="F21">
+        <v>-0.08564289254337569</v>
+      </c>
+      <c r="G21">
+        <v>-0.04183362297801908</v>
+      </c>
+      <c r="H21">
+        <v>0.1969155698740229</v>
+      </c>
+      <c r="I21">
+        <v>-0.04075824747217912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.001651624079622109</v>
+        <v>-0.01425340916747949</v>
       </c>
       <c r="C22">
-        <v>0.06847151457338627</v>
+        <v>-0.08822142042249807</v>
       </c>
       <c r="D22">
-        <v>-0.3019250014458071</v>
+        <v>-0.270155325178485</v>
       </c>
       <c r="E22">
-        <v>-0.03977359017777388</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.06343087846707353</v>
+      </c>
+      <c r="F22">
+        <v>-0.01567830536097449</v>
+      </c>
+      <c r="G22">
+        <v>0.4888557618110043</v>
+      </c>
+      <c r="H22">
+        <v>-0.2475315890707017</v>
+      </c>
+      <c r="I22">
+        <v>-0.06118394645059395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.001927534415970698</v>
+        <v>-0.01109698589213034</v>
       </c>
       <c r="C23">
-        <v>0.06894414852365377</v>
+        <v>-0.0900059594165719</v>
       </c>
       <c r="D23">
-        <v>-0.3014115898014352</v>
+        <v>-0.2726919248411393</v>
       </c>
       <c r="E23">
-        <v>-0.03996126808507406</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.0584422123953526</v>
+      </c>
+      <c r="F23">
+        <v>-0.01886402834535521</v>
+      </c>
+      <c r="G23">
+        <v>0.4734215721399532</v>
+      </c>
+      <c r="H23">
+        <v>-0.2358225305060779</v>
+      </c>
+      <c r="I23">
+        <v>-0.06054596419531399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02385288887435673</v>
+        <v>0.009358729217726658</v>
       </c>
       <c r="C24">
-        <v>0.05757083791506695</v>
+        <v>-0.06734805037029422</v>
       </c>
       <c r="D24">
-        <v>-0.05583980262175377</v>
+        <v>-0.0457135702569916</v>
       </c>
       <c r="E24">
-        <v>0.005124496430503028</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02925848086783575</v>
+      </c>
+      <c r="F24">
+        <v>0.008463376046409996</v>
+      </c>
+      <c r="G24">
+        <v>-0.03414704194287342</v>
+      </c>
+      <c r="H24">
+        <v>0.0580272237867869</v>
+      </c>
+      <c r="I24">
+        <v>0.03671644354566264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02412477800246392</v>
+        <v>0.01325064073238704</v>
       </c>
       <c r="C25">
-        <v>0.04921979702985581</v>
+        <v>-0.06186976089021035</v>
       </c>
       <c r="D25">
-        <v>-0.05389841421961394</v>
+        <v>-0.04851282953039587</v>
       </c>
       <c r="E25">
-        <v>-0.001776416758014656</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01493888253912009</v>
+      </c>
+      <c r="F25">
+        <v>0.006909422066105962</v>
+      </c>
+      <c r="G25">
+        <v>-0.0270939656392999</v>
+      </c>
+      <c r="H25">
+        <v>0.02513895849783533</v>
+      </c>
+      <c r="I25">
+        <v>0.02359767749374524</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.009498451841939136</v>
+        <v>0.01678693797864384</v>
       </c>
       <c r="C26">
-        <v>0.0150936475882591</v>
+        <v>-0.0293535295698561</v>
       </c>
       <c r="D26">
-        <v>-0.07392267287122695</v>
+        <v>-0.06614538470885148</v>
       </c>
       <c r="E26">
-        <v>-0.02895137464315745</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04010430711334132</v>
+      </c>
+      <c r="F26">
+        <v>-0.04319737749871579</v>
+      </c>
+      <c r="G26">
+        <v>-0.03156455294200594</v>
+      </c>
+      <c r="H26">
+        <v>0.1006119556025771</v>
+      </c>
+      <c r="I26">
+        <v>0.01716200220772077</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.259682646572217</v>
+        <v>0.3187734763354678</v>
       </c>
       <c r="C28">
-        <v>-0.1948993186968365</v>
+        <v>0.08570196322230844</v>
       </c>
       <c r="D28">
-        <v>-0.008646147209497275</v>
+        <v>0.02469286267757164</v>
       </c>
       <c r="E28">
-        <v>-0.04934278844479777</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.04924219330280128</v>
+      </c>
+      <c r="F28">
+        <v>-0.04802325576206357</v>
+      </c>
+      <c r="G28">
+        <v>0.06310483746563281</v>
+      </c>
+      <c r="H28">
+        <v>0.01753023230521511</v>
+      </c>
+      <c r="I28">
+        <v>0.008988657918730601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0005776661489288633</v>
+        <v>0.001434218061760344</v>
       </c>
       <c r="C29">
-        <v>0.02077834920289209</v>
+        <v>-0.03800908072691889</v>
       </c>
       <c r="D29">
-        <v>-0.08359507361576468</v>
+        <v>-0.1021869734497923</v>
       </c>
       <c r="E29">
-        <v>-0.02827156700042738</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.05822334494259225</v>
+      </c>
+      <c r="F29">
+        <v>-0.03263986178259885</v>
+      </c>
+      <c r="G29">
+        <v>-0.05752770894352409</v>
+      </c>
+      <c r="H29">
+        <v>0.1408185368735329</v>
+      </c>
+      <c r="I29">
+        <v>0.01605127467631474</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.0255468896444212</v>
+        <v>0.0125522244641395</v>
       </c>
       <c r="C30">
-        <v>0.06375188354145045</v>
+        <v>-0.09248960665988916</v>
       </c>
       <c r="D30">
-        <v>-0.149560226287052</v>
+        <v>-0.1378528774341044</v>
       </c>
       <c r="E30">
-        <v>-0.0321388673602072</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05478828495900552</v>
+      </c>
+      <c r="F30">
+        <v>-0.01837485152267364</v>
+      </c>
+      <c r="G30">
+        <v>0.0009198121568163813</v>
+      </c>
+      <c r="H30">
+        <v>0.04274992555122761</v>
+      </c>
+      <c r="I30">
+        <v>0.05390514631390652</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.03661307658533308</v>
+        <v>0.006667984674089161</v>
       </c>
       <c r="C31">
-        <v>0.08438040464048967</v>
+        <v>-0.0945222935962574</v>
       </c>
       <c r="D31">
-        <v>-0.05746947538097096</v>
+        <v>-0.03840050907258453</v>
       </c>
       <c r="E31">
-        <v>-0.01446494542208868</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.0200938716118274</v>
+      </c>
+      <c r="F31">
+        <v>-0.01357712125586097</v>
+      </c>
+      <c r="G31">
+        <v>-0.01232164583765144</v>
+      </c>
+      <c r="H31">
+        <v>0.04329413268418146</v>
+      </c>
+      <c r="I31">
+        <v>0.01878606393772254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01443952286255053</v>
+        <v>0.009287193023998101</v>
       </c>
       <c r="C32">
-        <v>0.03695660687750921</v>
+        <v>-0.04908164101262982</v>
       </c>
       <c r="D32">
-        <v>-0.08141686640812427</v>
+        <v>-0.08891554317233202</v>
       </c>
       <c r="E32">
-        <v>-0.05068910844737037</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.005502257408214264</v>
+      </c>
+      <c r="F32">
+        <v>-0.04747878040720508</v>
+      </c>
+      <c r="G32">
+        <v>0.006459526891823116</v>
+      </c>
+      <c r="H32">
+        <v>0.05555317938481693</v>
+      </c>
+      <c r="I32">
+        <v>-0.01944303134459776</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.0078237462904675</v>
+        <v>0.004362370330603863</v>
       </c>
       <c r="C33">
-        <v>0.04139688394483863</v>
+        <v>-0.06089750081601323</v>
       </c>
       <c r="D33">
-        <v>-0.1206140060751423</v>
+        <v>-0.116946206175059</v>
       </c>
       <c r="E33">
-        <v>-0.03886248850333076</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03066077797818813</v>
+      </c>
+      <c r="F33">
+        <v>-0.02297180410465748</v>
+      </c>
+      <c r="G33">
+        <v>-0.02101713491992367</v>
+      </c>
+      <c r="H33">
+        <v>0.05253222748879136</v>
+      </c>
+      <c r="I33">
+        <v>0.01880997798410032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02139187951504085</v>
+        <v>0.007123479009609919</v>
       </c>
       <c r="C34">
-        <v>0.05890669058655475</v>
+        <v>-0.06194847871631395</v>
       </c>
       <c r="D34">
-        <v>-0.0497759576048865</v>
+        <v>-0.02591828150592101</v>
       </c>
       <c r="E34">
-        <v>0.04454864411536024</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02771397889370017</v>
+      </c>
+      <c r="F34">
+        <v>0.04218039233138317</v>
+      </c>
+      <c r="G34">
+        <v>-0.03030382869811795</v>
+      </c>
+      <c r="H34">
+        <v>0.03882457487888995</v>
+      </c>
+      <c r="I34">
+        <v>0.01490934950075336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.002771714236801828</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01199061793044906</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03442923063580627</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.005569576620415564</v>
+      </c>
+      <c r="F35">
+        <v>-0.01669418079234355</v>
+      </c>
+      <c r="G35">
+        <v>-0.02427033223580789</v>
+      </c>
+      <c r="H35">
+        <v>0.05375133378034412</v>
+      </c>
+      <c r="I35">
+        <v>0.01642958665366309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.005761197299188094</v>
+        <v>0.01095353524460359</v>
       </c>
       <c r="C36">
-        <v>0.007322561267432499</v>
+        <v>-0.02265247169768007</v>
       </c>
       <c r="D36">
-        <v>-0.07550991628458656</v>
+        <v>-0.07320044169752923</v>
       </c>
       <c r="E36">
-        <v>-0.04844669976832836</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.03052625995789252</v>
+      </c>
+      <c r="F36">
+        <v>-0.04757191845660968</v>
+      </c>
+      <c r="G36">
+        <v>-0.01967261228269039</v>
+      </c>
+      <c r="H36">
+        <v>0.06472682249965617</v>
+      </c>
+      <c r="I36">
+        <v>0.01817419949728098</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.006196113418186676</v>
+        <v>0.01073254033636981</v>
       </c>
       <c r="C38">
-        <v>0.006790621611558603</v>
+        <v>-0.02620604274540797</v>
       </c>
       <c r="D38">
-        <v>-0.07861574420774434</v>
+        <v>-0.08462188238487785</v>
       </c>
       <c r="E38">
-        <v>-0.005340001851526568</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.006360468331070515</v>
+      </c>
+      <c r="F38">
+        <v>-0.0009384649456809449</v>
+      </c>
+      <c r="G38">
+        <v>0.004617679051194212</v>
+      </c>
+      <c r="H38">
+        <v>0.06975755368625802</v>
+      </c>
+      <c r="I38">
+        <v>0.0523516974940728</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01674797083554007</v>
+        <v>0.00309082182052086</v>
       </c>
       <c r="C39">
-        <v>0.05945733078980225</v>
+        <v>-0.07937772513580142</v>
       </c>
       <c r="D39">
-        <v>-0.1013357594136674</v>
+        <v>-0.0875581514102233</v>
       </c>
       <c r="E39">
-        <v>0.007388032435105073</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.0517456546373457</v>
+      </c>
+      <c r="F39">
+        <v>0.01213073569321573</v>
+      </c>
+      <c r="G39">
+        <v>-0.05012334630794271</v>
+      </c>
+      <c r="H39">
+        <v>0.08069672412799522</v>
+      </c>
+      <c r="I39">
+        <v>0.0419454629498334</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01764916529927509</v>
+        <v>0.01259111310352007</v>
       </c>
       <c r="C40">
-        <v>0.0234800536030302</v>
+        <v>-0.0392379008198074</v>
       </c>
       <c r="D40">
-        <v>-0.1101931327258833</v>
+        <v>-0.09294592062151823</v>
       </c>
       <c r="E40">
-        <v>0.008963376644476228</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.04191167851559803</v>
+      </c>
+      <c r="F40">
+        <v>0.02253824612758731</v>
+      </c>
+      <c r="G40">
+        <v>0.02593106707598265</v>
+      </c>
+      <c r="H40">
+        <v>0.1142061680217131</v>
+      </c>
+      <c r="I40">
+        <v>-0.01879267766685466</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.009632664333254274</v>
+        <v>0.01453901271225451</v>
       </c>
       <c r="C41">
-        <v>0.003740350789288421</v>
+        <v>-0.01958536091898377</v>
       </c>
       <c r="D41">
-        <v>-0.03435174805821133</v>
+        <v>-0.04165904640138885</v>
       </c>
       <c r="E41">
-        <v>-0.02445841770117234</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.006125700892262918</v>
+      </c>
+      <c r="F41">
+        <v>-0.02267133634695698</v>
+      </c>
+      <c r="G41">
+        <v>-0.009467148267368195</v>
+      </c>
+      <c r="H41">
+        <v>0.04498441400712959</v>
+      </c>
+      <c r="I41">
+        <v>0.01760111038505275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.0008162823834916388</v>
+        <v>0.006911926182231709</v>
       </c>
       <c r="C43">
-        <v>0.004132239586399961</v>
+        <v>-0.01591555701053361</v>
       </c>
       <c r="D43">
-        <v>-0.05130581458534735</v>
+        <v>-0.05088654748570792</v>
       </c>
       <c r="E43">
-        <v>-0.0191668785408514</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01108768545329232</v>
+      </c>
+      <c r="F43">
+        <v>-0.02021961723157641</v>
+      </c>
+      <c r="G43">
+        <v>-0.01163637823098686</v>
+      </c>
+      <c r="H43">
+        <v>0.05152788971843453</v>
+      </c>
+      <c r="I43">
+        <v>0.03652169142103408</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.02092225020182524</v>
+        <v>0.01178496718687565</v>
       </c>
       <c r="C44">
-        <v>0.02314701965314927</v>
+        <v>-0.04901239372978973</v>
       </c>
       <c r="D44">
-        <v>-0.08831689962225349</v>
+        <v>-0.1012671441590624</v>
       </c>
       <c r="E44">
-        <v>-0.04800644741007971</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.03569965237850585</v>
+      </c>
+      <c r="F44">
+        <v>-0.03320882281011133</v>
+      </c>
+      <c r="G44">
+        <v>0.01167085135858746</v>
+      </c>
+      <c r="H44">
+        <v>0.06521831964093774</v>
+      </c>
+      <c r="I44">
+        <v>0.02974447097096601</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.007082585801354454</v>
+        <v>-0.001792850793352984</v>
       </c>
       <c r="C46">
-        <v>0.03039566970171691</v>
+        <v>-0.0426654932235304</v>
       </c>
       <c r="D46">
-        <v>-0.076904563919832</v>
+        <v>-0.07010147117685291</v>
       </c>
       <c r="E46">
-        <v>-0.01937641819382982</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.04478801998688051</v>
+      </c>
+      <c r="F46">
+        <v>-0.02658455890043866</v>
+      </c>
+      <c r="G46">
+        <v>-0.03254085226723569</v>
+      </c>
+      <c r="H46">
+        <v>0.1246529741972599</v>
+      </c>
+      <c r="I46">
+        <v>0.04685825688770351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07787082973883259</v>
+        <v>0.02953050488438139</v>
       </c>
       <c r="C47">
-        <v>0.1073275794047385</v>
+        <v>-0.1287819344451338</v>
       </c>
       <c r="D47">
-        <v>-0.04955141031190155</v>
+        <v>-0.02201715451595849</v>
       </c>
       <c r="E47">
-        <v>-0.01574842140206274</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.008878008257694405</v>
+      </c>
+      <c r="F47">
+        <v>0.005497540132880663</v>
+      </c>
+      <c r="G47">
+        <v>-0.05435434479861995</v>
+      </c>
+      <c r="H47">
+        <v>0.03025172429039676</v>
+      </c>
+      <c r="I47">
+        <v>0.02838050225360135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.00929216380198147</v>
+        <v>0.01417679779171063</v>
       </c>
       <c r="C48">
-        <v>0.01704182463498398</v>
+        <v>-0.0340999712826526</v>
       </c>
       <c r="D48">
-        <v>-0.07041492764591843</v>
+        <v>-0.07572523334788508</v>
       </c>
       <c r="E48">
-        <v>-0.0495189761903124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.02178511307353448</v>
+      </c>
+      <c r="F48">
+        <v>-0.0531159355831347</v>
+      </c>
+      <c r="G48">
+        <v>-0.02996220195745349</v>
+      </c>
+      <c r="H48">
+        <v>0.1048462336863519</v>
+      </c>
+      <c r="I48">
+        <v>0.04042060231841489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03295700444820895</v>
+        <v>0.01072947012599322</v>
       </c>
       <c r="C50">
-        <v>0.05839125358413345</v>
+        <v>-0.07597650596482121</v>
       </c>
       <c r="D50">
-        <v>-0.055406212260443</v>
+        <v>-0.04704218976028694</v>
       </c>
       <c r="E50">
-        <v>-0.006190372345803294</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01570907140396891</v>
+      </c>
+      <c r="F50">
+        <v>-0.005944272869605524</v>
+      </c>
+      <c r="G50">
+        <v>-2.794883321448217e-05</v>
+      </c>
+      <c r="H50">
+        <v>0.02705639506567612</v>
+      </c>
+      <c r="I50">
+        <v>0.02514902896559469</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.001107024277377044</v>
+        <v>-0.001297968692029936</v>
       </c>
       <c r="C51">
-        <v>0.005009077470276816</v>
+        <v>-0.01633373992393199</v>
       </c>
       <c r="D51">
-        <v>-0.05564283679233775</v>
+        <v>-0.05625038133912754</v>
       </c>
       <c r="E51">
-        <v>-0.0182647148514403</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03768025724451114</v>
+      </c>
+      <c r="F51">
+        <v>-0.03725408078784502</v>
+      </c>
+      <c r="G51">
+        <v>0.004065335647278137</v>
+      </c>
+      <c r="H51">
+        <v>0.06729083018679911</v>
+      </c>
+      <c r="I51">
+        <v>-0.0006979755365947668</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1086475255659134</v>
+        <v>0.05031801085648127</v>
       </c>
       <c r="C53">
-        <v>0.1249951612471326</v>
+        <v>-0.1578035694155159</v>
       </c>
       <c r="D53">
-        <v>0.0006152796463387277</v>
+        <v>0.022900846447861</v>
       </c>
       <c r="E53">
-        <v>-0.04650979762416352</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02328931177386827</v>
+      </c>
+      <c r="F53">
+        <v>-0.0462309514681435</v>
+      </c>
+      <c r="G53">
+        <v>-0.005174350219581464</v>
+      </c>
+      <c r="H53">
+        <v>0.007062368655067713</v>
+      </c>
+      <c r="I53">
+        <v>0.01827067412041978</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01007936292983948</v>
+        <v>0.009228973242403741</v>
       </c>
       <c r="C54">
-        <v>0.02169063978884923</v>
+        <v>-0.03859932123599443</v>
       </c>
       <c r="D54">
-        <v>-0.08698160269953496</v>
+        <v>-0.07712164254275232</v>
       </c>
       <c r="E54">
-        <v>-0.00793972889503239</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.02167368879240596</v>
+      </c>
+      <c r="F54">
+        <v>-0.001134462594609785</v>
+      </c>
+      <c r="G54">
+        <v>-0.009168554744178136</v>
+      </c>
+      <c r="H54">
+        <v>0.07662849447995476</v>
+      </c>
+      <c r="I54">
+        <v>0.04792517996495492</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09388349339640976</v>
+        <v>0.03895035316533316</v>
       </c>
       <c r="C55">
-        <v>0.106859250173417</v>
+        <v>-0.1318145501625015</v>
       </c>
       <c r="D55">
-        <v>-0.006226331753489303</v>
+        <v>0.03215794787302336</v>
       </c>
       <c r="E55">
-        <v>-0.003429815852340492</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.008483243319529503</v>
+      </c>
+      <c r="F55">
+        <v>-0.007946770836729738</v>
+      </c>
+      <c r="G55">
+        <v>-0.002631320437792511</v>
+      </c>
+      <c r="H55">
+        <v>0.008231666935282832</v>
+      </c>
+      <c r="I55">
+        <v>-0.008937804640588281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1346635707705912</v>
+        <v>0.053135929027813</v>
       </c>
       <c r="C56">
-        <v>0.1451794081353916</v>
+        <v>-0.1920964703903807</v>
       </c>
       <c r="D56">
-        <v>-0.007998277595370898</v>
+        <v>0.03190484036071106</v>
       </c>
       <c r="E56">
-        <v>0.002371144729905267</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.02679907212411525</v>
+      </c>
+      <c r="F56">
+        <v>-0.01270685056428543</v>
+      </c>
+      <c r="G56">
+        <v>0.04265172188957091</v>
+      </c>
+      <c r="H56">
+        <v>0.03187642078528069</v>
+      </c>
+      <c r="I56">
+        <v>-0.005048660131622412</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.01052224155702036</v>
+        <v>0.001883404083464978</v>
       </c>
       <c r="C58">
-        <v>0.009215411119591463</v>
+        <v>-0.05514869003106324</v>
       </c>
       <c r="D58">
-        <v>-0.2182290960235192</v>
+        <v>-0.2894995838656563</v>
       </c>
       <c r="E58">
-        <v>-0.1108375901681825</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02444201949159073</v>
+      </c>
+      <c r="F58">
+        <v>-0.1194128761768498</v>
+      </c>
+      <c r="G58">
+        <v>0.1686589715922893</v>
+      </c>
+      <c r="H58">
+        <v>-0.01962210815534342</v>
+      </c>
+      <c r="I58">
+        <v>0.03215103798073671</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1814836307781141</v>
+        <v>0.254551602433787</v>
       </c>
       <c r="C59">
-        <v>-0.1451866545369574</v>
+        <v>0.05590742530261637</v>
       </c>
       <c r="D59">
-        <v>-0.04179412524477838</v>
+        <v>-0.05301927404237548</v>
       </c>
       <c r="E59">
-        <v>-0.02985557908845451</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02498075050372069</v>
+      </c>
+      <c r="F59">
+        <v>-0.02534060018318535</v>
+      </c>
+      <c r="G59">
+        <v>0.01130876200057039</v>
+      </c>
+      <c r="H59">
+        <v>0.01509540657540099</v>
+      </c>
+      <c r="I59">
+        <v>-0.03366033274819469</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1825911650196692</v>
+        <v>0.147659582964773</v>
       </c>
       <c r="C60">
-        <v>0.1013545636678263</v>
+        <v>-0.1751753641440712</v>
       </c>
       <c r="D60">
-        <v>-0.2253820565306258</v>
+        <v>-0.09828018411755775</v>
       </c>
       <c r="E60">
-        <v>0.07211425904200706</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.146061123290394</v>
+      </c>
+      <c r="F60">
+        <v>0.1993834753481086</v>
+      </c>
+      <c r="G60">
+        <v>-0.1621634116687085</v>
+      </c>
+      <c r="H60">
+        <v>-0.2853179902735619</v>
+      </c>
+      <c r="I60">
+        <v>-0.1583895666812273</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02518455701031416</v>
+        <v>0.01008372341417054</v>
       </c>
       <c r="C61">
-        <v>0.05364655691407519</v>
+        <v>-0.07528302856760874</v>
       </c>
       <c r="D61">
-        <v>-0.08385375195010038</v>
+        <v>-0.07132888736769454</v>
       </c>
       <c r="E61">
-        <v>0.005703722895624069</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03780224838879022</v>
+      </c>
+      <c r="F61">
+        <v>0.01727616188205755</v>
+      </c>
+      <c r="G61">
+        <v>-0.0586445285714257</v>
+      </c>
+      <c r="H61">
+        <v>0.06538809447556057</v>
+      </c>
+      <c r="I61">
+        <v>0.02984597972756346</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.007095465405643331</v>
+        <v>0.007924200992918502</v>
       </c>
       <c r="C63">
-        <v>0.02359883153371061</v>
+        <v>-0.03733341674104779</v>
       </c>
       <c r="D63">
-        <v>-0.09136078646800948</v>
+        <v>-0.06769749516964176</v>
       </c>
       <c r="E63">
-        <v>-0.02775289435721833</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.05812880876898722</v>
+      </c>
+      <c r="F63">
+        <v>-0.02396706142282481</v>
+      </c>
+      <c r="G63">
+        <v>-0.02604478844789122</v>
+      </c>
+      <c r="H63">
+        <v>0.06754687634823522</v>
+      </c>
+      <c r="I63">
+        <v>0.03244239109705242</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05741890367152174</v>
+        <v>0.01482335477336917</v>
       </c>
       <c r="C64">
-        <v>0.08833508402485458</v>
+        <v>-0.1057920031327984</v>
       </c>
       <c r="D64">
-        <v>-0.009363096380775138</v>
+        <v>-0.005257187183307732</v>
       </c>
       <c r="E64">
-        <v>-0.01320522278845383</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02242732239352769</v>
+      </c>
+      <c r="F64">
+        <v>-0.01053383145955351</v>
+      </c>
+      <c r="G64">
+        <v>-0.0548652090521345</v>
+      </c>
+      <c r="H64">
+        <v>0.04158810525005107</v>
+      </c>
+      <c r="I64">
+        <v>0.05699897284340429</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02445784587715826</v>
+        <v>0.02000339242422447</v>
       </c>
       <c r="C65">
-        <v>0.01546270727276067</v>
+        <v>-0.0438802990497476</v>
       </c>
       <c r="D65">
-        <v>-0.1081970719195514</v>
+        <v>-0.1144862405206638</v>
       </c>
       <c r="E65">
-        <v>-0.02112069353661139</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04811095057832405</v>
+      </c>
+      <c r="F65">
+        <v>0.005741606782859683</v>
+      </c>
+      <c r="G65">
+        <v>-0.03581415610802652</v>
+      </c>
+      <c r="H65">
+        <v>-0.008233868225879354</v>
+      </c>
+      <c r="I65">
+        <v>0.03736889574149705</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.0221318350545364</v>
+        <v>-0.0003174391332114059</v>
       </c>
       <c r="C66">
-        <v>0.06871881866614049</v>
+        <v>-0.09794457151717344</v>
       </c>
       <c r="D66">
-        <v>-0.1199789600720189</v>
+        <v>-0.1175264546567726</v>
       </c>
       <c r="E66">
-        <v>0.006366421285503814</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.04359667837548952</v>
+      </c>
+      <c r="F66">
+        <v>0.01229311516518864</v>
+      </c>
+      <c r="G66">
+        <v>-0.01422804726442133</v>
+      </c>
+      <c r="H66">
+        <v>0.06141335547819609</v>
+      </c>
+      <c r="I66">
+        <v>0.03400217320696387</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.0238358600510989</v>
+        <v>0.02023995405472708</v>
       </c>
       <c r="C67">
-        <v>0.02020092124876172</v>
+        <v>-0.03740576823941889</v>
       </c>
       <c r="D67">
-        <v>-0.04013456159255096</v>
+        <v>-0.04044528972239162</v>
       </c>
       <c r="E67">
-        <v>0.02429873078883157</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01221799099664287</v>
+      </c>
+      <c r="F67">
+        <v>0.02938505375616153</v>
+      </c>
+      <c r="G67">
+        <v>-0.01144148455012617</v>
+      </c>
+      <c r="H67">
+        <v>0.05913365423676659</v>
+      </c>
+      <c r="I67">
+        <v>0.04356330015199872</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2035603093633146</v>
+        <v>0.2778976990864052</v>
       </c>
       <c r="C68">
-        <v>-0.1553940019469013</v>
+        <v>0.06216440461900144</v>
       </c>
       <c r="D68">
-        <v>-0.03152117757358765</v>
+        <v>-0.02955014636132604</v>
       </c>
       <c r="E68">
-        <v>-0.0210271353338401</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.002188110990096613</v>
+      </c>
+      <c r="F68">
+        <v>-0.02724222037111057</v>
+      </c>
+      <c r="G68">
+        <v>0.08405060408935196</v>
+      </c>
+      <c r="H68">
+        <v>-0.02735384716567359</v>
+      </c>
+      <c r="I68">
+        <v>-0.01660648710405303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05372893416131157</v>
+        <v>0.01406523323894691</v>
       </c>
       <c r="C69">
-        <v>0.1168154552217434</v>
+        <v>-0.1181912193755554</v>
       </c>
       <c r="D69">
-        <v>-0.0739256061228766</v>
+        <v>-0.03017177765493948</v>
       </c>
       <c r="E69">
-        <v>-0.01063090172330696</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01056804929348741</v>
+      </c>
+      <c r="F69">
+        <v>0.01054849135898649</v>
+      </c>
+      <c r="G69">
+        <v>-0.03841279788855947</v>
+      </c>
+      <c r="H69">
+        <v>0.02760793226800938</v>
+      </c>
+      <c r="I69">
+        <v>0.01016518007156997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.212454641360953</v>
+        <v>0.2768074901869331</v>
       </c>
       <c r="C71">
-        <v>-0.1790320759587629</v>
+        <v>0.0759654712715503</v>
       </c>
       <c r="D71">
-        <v>-0.01842656798296394</v>
+        <v>-0.01555683437989053</v>
       </c>
       <c r="E71">
-        <v>-0.009929938168624596</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.001370182335219604</v>
+      </c>
+      <c r="F71">
+        <v>-0.01465203122912939</v>
+      </c>
+      <c r="G71">
+        <v>0.03051090999819031</v>
+      </c>
+      <c r="H71">
+        <v>0.01349672738978108</v>
+      </c>
+      <c r="I71">
+        <v>0.008548242899834555</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1012226412241295</v>
+        <v>0.0536411797838264</v>
       </c>
       <c r="C72">
-        <v>0.07666755190289395</v>
+        <v>-0.1289374184748119</v>
       </c>
       <c r="D72">
-        <v>-0.1188075386796199</v>
+        <v>-0.06187429090029009</v>
       </c>
       <c r="E72">
-        <v>0.01307081874487993</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.07223536165276867</v>
+      </c>
+      <c r="F72">
+        <v>0.02856608556269069</v>
+      </c>
+      <c r="G72">
+        <v>-0.06094913796006127</v>
+      </c>
+      <c r="H72">
+        <v>0.02362666111601235</v>
+      </c>
+      <c r="I72">
+        <v>0.02920578692394777</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1723842277476159</v>
+        <v>0.1373194688979897</v>
       </c>
       <c r="C73">
-        <v>0.06842332603709865</v>
+        <v>-0.1522233120541085</v>
       </c>
       <c r="D73">
-        <v>-0.2730620411701526</v>
+        <v>-0.1041197773485828</v>
       </c>
       <c r="E73">
-        <v>0.1237520508869723</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2629446904484882</v>
+      </c>
+      <c r="F73">
+        <v>0.2863224078888479</v>
+      </c>
+      <c r="G73">
+        <v>-0.3329219692581242</v>
+      </c>
+      <c r="H73">
+        <v>-0.2972251568506271</v>
+      </c>
+      <c r="I73">
+        <v>-0.07943498041587123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1064510167002327</v>
+        <v>0.04834946520850041</v>
       </c>
       <c r="C74">
-        <v>0.1143349715797823</v>
+        <v>-0.1444656091732193</v>
       </c>
       <c r="D74">
-        <v>0.02450400553034433</v>
+        <v>0.04356138217887341</v>
       </c>
       <c r="E74">
-        <v>-0.03591357747946314</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.008915934799006238</v>
+      </c>
+      <c r="F74">
+        <v>-0.03582002794032823</v>
+      </c>
+      <c r="G74">
+        <v>0.00133868092452378</v>
+      </c>
+      <c r="H74">
+        <v>-0.01886573722157825</v>
+      </c>
+      <c r="I74">
+        <v>-0.01045896495680511</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2316819972162678</v>
+        <v>0.09776784337689667</v>
       </c>
       <c r="C75">
-        <v>0.1983894994049364</v>
+        <v>-0.2707359705671964</v>
       </c>
       <c r="D75">
-        <v>0.09383200717542352</v>
+        <v>0.1305606953256316</v>
       </c>
       <c r="E75">
-        <v>0.06047965288207492</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.09144785821426708</v>
+      </c>
+      <c r="F75">
+        <v>0.03398103300130379</v>
+      </c>
+      <c r="G75">
+        <v>0.09022682790807676</v>
+      </c>
+      <c r="H75">
+        <v>0.04838997645559952</v>
+      </c>
+      <c r="I75">
+        <v>0.06232312209235364</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1374001474662616</v>
+        <v>0.05523002866240026</v>
       </c>
       <c r="C76">
-        <v>0.137907411812248</v>
+        <v>-0.181181168531696</v>
       </c>
       <c r="D76">
-        <v>-0.0006333979488380344</v>
+        <v>0.04669086869246529</v>
       </c>
       <c r="E76">
-        <v>0.007724593639744338</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.01846934994642205</v>
+      </c>
+      <c r="F76">
+        <v>-0.001268851622007636</v>
+      </c>
+      <c r="G76">
+        <v>0.0291230124223991</v>
+      </c>
+      <c r="H76">
+        <v>0.04687691071900127</v>
+      </c>
+      <c r="I76">
+        <v>0.01509217730853929</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02022051460632035</v>
+        <v>-0.002336766662210735</v>
       </c>
       <c r="C77">
-        <v>0.06747302207541478</v>
+        <v>-0.1049314022733081</v>
       </c>
       <c r="D77">
-        <v>0.01168831589869133</v>
+        <v>-0.3160517316764349</v>
       </c>
       <c r="E77">
-        <v>-0.03791318589549358</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.8573121897075399</v>
+      </c>
+      <c r="F77">
+        <v>0.1801688774785052</v>
+      </c>
+      <c r="G77">
+        <v>-0.1363705380994703</v>
+      </c>
+      <c r="H77">
+        <v>-0.1954263616232353</v>
+      </c>
+      <c r="I77">
+        <v>-0.009589388310766889</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02974471993858558</v>
+        <v>0.01548791509580361</v>
       </c>
       <c r="C78">
-        <v>0.07100616644613657</v>
+        <v>-0.09259421108058688</v>
       </c>
       <c r="D78">
-        <v>-0.1477993993699469</v>
+        <v>-0.1121457819090214</v>
       </c>
       <c r="E78">
-        <v>-0.05323089877447849</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06554113019587951</v>
+      </c>
+      <c r="F78">
+        <v>-0.03969655916592512</v>
+      </c>
+      <c r="G78">
+        <v>0.02038696880890428</v>
+      </c>
+      <c r="H78">
+        <v>0.06226773013816246</v>
+      </c>
+      <c r="I78">
+        <v>-0.03527640968418689</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1008434620992286</v>
+        <v>0.03406164989481263</v>
       </c>
       <c r="C79">
-        <v>0.1844962176794702</v>
+        <v>-0.1979031779122231</v>
       </c>
       <c r="D79">
-        <v>0.2261304820074382</v>
+        <v>0.09010428846032439</v>
       </c>
       <c r="E79">
-        <v>-0.8705340341755232</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.0536407953148423</v>
+      </c>
+      <c r="F79">
+        <v>-0.8113582249782041</v>
+      </c>
+      <c r="G79">
+        <v>-0.2494814721016634</v>
+      </c>
+      <c r="H79">
+        <v>-0.359379330730314</v>
+      </c>
+      <c r="I79">
+        <v>-0.02977721358641946</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.003802175747126484</v>
+        <v>0.004437512859764932</v>
       </c>
       <c r="C80">
-        <v>0.04453618787482642</v>
+        <v>-0.04427365912945334</v>
       </c>
       <c r="D80">
-        <v>-0.05078237901811451</v>
+        <v>-0.04032519435736864</v>
       </c>
       <c r="E80">
-        <v>0.0003520813390232228</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04493866914909842</v>
+      </c>
+      <c r="F80">
+        <v>0.001255253358158004</v>
+      </c>
+      <c r="G80">
+        <v>-0.01680564873496157</v>
+      </c>
+      <c r="H80">
+        <v>0.03740578478378947</v>
+      </c>
+      <c r="I80">
+        <v>-0.08283246838287282</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1183586829539165</v>
+        <v>0.03877280367314237</v>
       </c>
       <c r="C81">
-        <v>0.1352356899700816</v>
+        <v>-0.1663016988432039</v>
       </c>
       <c r="D81">
-        <v>0.08235570782435786</v>
+        <v>0.08520206637746588</v>
       </c>
       <c r="E81">
-        <v>-0.0237717951449792</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04386073793880176</v>
+      </c>
+      <c r="F81">
+        <v>-0.05661226060589558</v>
+      </c>
+      <c r="G81">
+        <v>0.03270816795333827</v>
+      </c>
+      <c r="H81">
+        <v>0.08896767247218985</v>
+      </c>
+      <c r="I81">
+        <v>0.00630810334926479</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2493440396210714</v>
+        <v>0.08396626114793457</v>
       </c>
       <c r="C82">
-        <v>0.292769728073732</v>
+        <v>-0.3179545585375987</v>
       </c>
       <c r="D82">
-        <v>0.1877533839972504</v>
+        <v>0.2411229127375235</v>
       </c>
       <c r="E82">
-        <v>0.1949414139714928</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.06112727514136111</v>
+      </c>
+      <c r="F82">
+        <v>0.1211708856094214</v>
+      </c>
+      <c r="G82">
+        <v>0.06303252629221646</v>
+      </c>
+      <c r="H82">
+        <v>0.1364117840397478</v>
+      </c>
+      <c r="I82">
+        <v>0.00781836370843981</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.01063708850209814</v>
+        <v>-0.01557627532056735</v>
       </c>
       <c r="C83">
-        <v>0.05221874001035419</v>
+        <v>-0.01837564356414592</v>
       </c>
       <c r="D83">
-        <v>-0.003443646035693478</v>
+        <v>-0.01375607977809229</v>
       </c>
       <c r="E83">
-        <v>-0.03213253961837487</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.08436299847680027</v>
+      </c>
+      <c r="F83">
+        <v>-0.06674544829583502</v>
+      </c>
+      <c r="G83">
+        <v>-0.02212723505709099</v>
+      </c>
+      <c r="H83">
+        <v>0.2634725391241479</v>
+      </c>
+      <c r="I83">
+        <v>-0.8971759594235944</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.0003429714369799365</v>
+        <v>-0.003454493250917894</v>
       </c>
       <c r="C84">
-        <v>-0.001364013151923951</v>
+        <v>-0.01778348239065694</v>
       </c>
       <c r="D84">
-        <v>-0.001631542967351183</v>
+        <v>-0.0432764888150509</v>
       </c>
       <c r="E84">
-        <v>0.002144013868553564</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.001937091001480604</v>
+      </c>
+      <c r="F84">
+        <v>-0.03004518532640784</v>
+      </c>
+      <c r="G84">
+        <v>0.0372909428637862</v>
+      </c>
+      <c r="H84">
+        <v>0.04667353448749806</v>
+      </c>
+      <c r="I84">
+        <v>0.0623535291482861</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1409762433346736</v>
+        <v>0.05365658772112207</v>
       </c>
       <c r="C85">
-        <v>0.1408173511599816</v>
+        <v>-0.1841568028462668</v>
       </c>
       <c r="D85">
-        <v>0.05740127792745441</v>
+        <v>0.09889321914447122</v>
       </c>
       <c r="E85">
-        <v>-0.03570723217755516</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.001027744558925974</v>
+      </c>
+      <c r="F85">
+        <v>-0.06763348587998969</v>
+      </c>
+      <c r="G85">
+        <v>0.02245850072552366</v>
+      </c>
+      <c r="H85">
+        <v>-0.001764717960405228</v>
+      </c>
+      <c r="I85">
+        <v>0.004733774994708299</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01734721824967695</v>
+        <v>0.0114898403417834</v>
       </c>
       <c r="C86">
-        <v>0.009701898198950924</v>
+        <v>-0.03567272164706558</v>
       </c>
       <c r="D86">
-        <v>-0.09708563546082549</v>
+        <v>-0.1099708707650307</v>
       </c>
       <c r="E86">
-        <v>-0.02701596691051759</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.01486926097948058</v>
+      </c>
+      <c r="F86">
+        <v>-0.003337656721074484</v>
+      </c>
+      <c r="G86">
+        <v>-0.0231795708517374</v>
+      </c>
+      <c r="H86">
+        <v>0.02510745850810125</v>
+      </c>
+      <c r="I86">
+        <v>0.02463712479043291</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02055113980472306</v>
+        <v>0.01006560030491202</v>
       </c>
       <c r="C87">
-        <v>0.02619917311998852</v>
+        <v>-0.0603407024563189</v>
       </c>
       <c r="D87">
-        <v>-0.1270520430473393</v>
+        <v>-0.1381516312315195</v>
       </c>
       <c r="E87">
-        <v>-0.05326734022507282</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.01225889534228611</v>
+      </c>
+      <c r="F87">
+        <v>-0.04026934386499603</v>
+      </c>
+      <c r="G87">
+        <v>0.0330004558504759</v>
+      </c>
+      <c r="H87">
+        <v>0.08626033929246185</v>
+      </c>
+      <c r="I87">
+        <v>-0.008226716560131945</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.0509617274023829</v>
+        <v>0.03042886700554848</v>
       </c>
       <c r="C88">
-        <v>0.04462880392022556</v>
+        <v>-0.06861638237818554</v>
       </c>
       <c r="D88">
-        <v>-0.01661923405421607</v>
+        <v>-0.01467741477032237</v>
       </c>
       <c r="E88">
-        <v>-0.02779199957949455</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02944529596234972</v>
+      </c>
+      <c r="F88">
+        <v>-0.01843096214936298</v>
+      </c>
+      <c r="G88">
+        <v>-0.01638972272107614</v>
+      </c>
+      <c r="H88">
+        <v>-0.002154617933037086</v>
+      </c>
+      <c r="I88">
+        <v>0.0276826418874585</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3201663109695653</v>
+        <v>0.411227238210046</v>
       </c>
       <c r="C89">
-        <v>-0.3246417360186558</v>
+        <v>0.1459246835501548</v>
       </c>
       <c r="D89">
-        <v>-0.01190505856784761</v>
+        <v>-0.03770099001360812</v>
       </c>
       <c r="E89">
-        <v>-0.08492597064759151</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.0512269635661518</v>
+      </c>
+      <c r="F89">
+        <v>-0.06024773592609957</v>
+      </c>
+      <c r="G89">
+        <v>-0.02903606122173096</v>
+      </c>
+      <c r="H89">
+        <v>0.1421267942076636</v>
+      </c>
+      <c r="I89">
+        <v>-0.0626644021485776</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2559462625575552</v>
+        <v>0.3222895958300974</v>
       </c>
       <c r="C90">
-        <v>-0.239315373640098</v>
+        <v>0.09907246386456839</v>
       </c>
       <c r="D90">
-        <v>-0.05259162039800436</v>
+        <v>-0.03562084356342993</v>
       </c>
       <c r="E90">
-        <v>0.009713834031884997</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.008958079332944294</v>
+      </c>
+      <c r="F90">
+        <v>0.007337140379871983</v>
+      </c>
+      <c r="G90">
+        <v>0.06236921286821395</v>
+      </c>
+      <c r="H90">
+        <v>0.02753063201910962</v>
+      </c>
+      <c r="I90">
+        <v>-0.02650941122540086</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.154410391968604</v>
+        <v>0.0632108072664994</v>
       </c>
       <c r="C91">
-        <v>0.1852917992275181</v>
+        <v>-0.2070338011968645</v>
       </c>
       <c r="D91">
-        <v>0.1010781863660291</v>
+        <v>0.1100615075501645</v>
       </c>
       <c r="E91">
-        <v>-0.06040168058480072</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05785891293755686</v>
+      </c>
+      <c r="F91">
+        <v>-0.06430433574702245</v>
+      </c>
+      <c r="G91">
+        <v>0.009779338125478472</v>
+      </c>
+      <c r="H91">
+        <v>-0.003134171493431666</v>
+      </c>
+      <c r="I91">
+        <v>-0.02586795532939205</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2420501376784468</v>
+        <v>0.3405047918188425</v>
       </c>
       <c r="C92">
-        <v>-0.2617148273689606</v>
+        <v>0.1344993542112464</v>
       </c>
       <c r="D92">
-        <v>0.0631194566065828</v>
+        <v>-0.002852036961863364</v>
       </c>
       <c r="E92">
-        <v>-0.01613624723100718</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.0631407789164523</v>
+      </c>
+      <c r="F92">
+        <v>-0.0292670471113694</v>
+      </c>
+      <c r="G92">
+        <v>0.03020808466516714</v>
+      </c>
+      <c r="H92">
+        <v>0.01010271342661241</v>
+      </c>
+      <c r="I92">
+        <v>0.1396101124051458</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2834591511169323</v>
+        <v>0.3362422797800848</v>
       </c>
       <c r="C93">
-        <v>-0.2488044875544999</v>
+        <v>0.1062535548468498</v>
       </c>
       <c r="D93">
-        <v>-0.004995267181218774</v>
+        <v>0.02011714882066791</v>
       </c>
       <c r="E93">
-        <v>-0.01076798179027492</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.0263697969467308</v>
+      </c>
+      <c r="F93">
+        <v>-0.0047095129173951</v>
+      </c>
+      <c r="G93">
+        <v>-0.004646572733891003</v>
+      </c>
+      <c r="H93">
+        <v>-0.02871180457513798</v>
+      </c>
+      <c r="I93">
+        <v>0.02826356305630832</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2915170512672705</v>
+        <v>0.1195608277881091</v>
       </c>
       <c r="C94">
-        <v>0.2716955314336327</v>
+        <v>-0.3500440682901689</v>
       </c>
       <c r="D94">
-        <v>0.2884213716554066</v>
+        <v>0.3588761120255637</v>
       </c>
       <c r="E94">
-        <v>0.25039580415093</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.05428528265340959</v>
+      </c>
+      <c r="F94">
+        <v>0.1233306337046101</v>
+      </c>
+      <c r="G94">
+        <v>0.3227145911612639</v>
+      </c>
+      <c r="H94">
+        <v>0.04940422754478787</v>
+      </c>
+      <c r="I94">
+        <v>0.01500424203472681</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01399069473852363</v>
+        <v>0.01361982655788158</v>
       </c>
       <c r="C95">
-        <v>0.04106735677067447</v>
+        <v>-0.0656255337516827</v>
       </c>
       <c r="D95">
-        <v>0.02277289807364443</v>
+        <v>-0.09055373367582469</v>
       </c>
       <c r="E95">
-        <v>0.00230153414357897</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1592257004529822</v>
+      </c>
+      <c r="F95">
+        <v>0.03622708407482773</v>
+      </c>
+      <c r="G95">
+        <v>-0.1844945870709994</v>
+      </c>
+      <c r="H95">
+        <v>0.2710076958020666</v>
+      </c>
+      <c r="I95">
+        <v>0.193405178981396</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001613129046505413</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0009165136813729599</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0006902009459112061</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003654101757195205</v>
+      </c>
+      <c r="F97">
+        <v>-0.0004114405890994755</v>
+      </c>
+      <c r="G97">
+        <v>0.0005440107978266331</v>
+      </c>
+      <c r="H97">
+        <v>0.002772333588867535</v>
+      </c>
+      <c r="I97">
+        <v>0.00664217121205741</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1487658057169732</v>
+        <v>0.1197695987048867</v>
       </c>
       <c r="C98">
-        <v>0.0856144573949266</v>
+        <v>-0.1547201439983915</v>
       </c>
       <c r="D98">
-        <v>-0.1778384745173333</v>
+        <v>-0.07417645071664954</v>
       </c>
       <c r="E98">
-        <v>0.1066237119683013</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1794434313557977</v>
+      </c>
+      <c r="F98">
+        <v>0.223604278447997</v>
+      </c>
+      <c r="G98">
+        <v>-0.2345241803488545</v>
+      </c>
+      <c r="H98">
+        <v>-0.2501913793663366</v>
+      </c>
+      <c r="I98">
+        <v>-0.1153464546551988</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.001304436275758007</v>
+        <v>0.001914861842993694</v>
       </c>
       <c r="C101">
-        <v>0.0200230983014497</v>
+        <v>-0.03726180285027859</v>
       </c>
       <c r="D101">
-        <v>-0.0831796470056597</v>
+        <v>-0.101383805374513</v>
       </c>
       <c r="E101">
-        <v>-0.02903969063875107</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.05755029809777844</v>
+      </c>
+      <c r="F101">
+        <v>-0.03280196219357234</v>
+      </c>
+      <c r="G101">
+        <v>-0.05679398024334483</v>
+      </c>
+      <c r="H101">
+        <v>0.1414421136615302</v>
+      </c>
+      <c r="I101">
+        <v>0.01613304562921768</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.105377247211944</v>
+        <v>0.02628986786285036</v>
       </c>
       <c r="C102">
-        <v>0.1578469540037629</v>
+        <v>-0.1480562134885446</v>
       </c>
       <c r="D102">
-        <v>0.05402546483625819</v>
+        <v>0.09855329194042632</v>
       </c>
       <c r="E102">
-        <v>0.08147318883642754</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03674927126805077</v>
+      </c>
+      <c r="F102">
+        <v>0.07155520588786292</v>
+      </c>
+      <c r="G102">
+        <v>-0.0186051944788558</v>
+      </c>
+      <c r="H102">
+        <v>0.03403219164756759</v>
+      </c>
+      <c r="I102">
+        <v>-0.01622714081943839</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
